--- a/random_lines_ext/results.xlsx
+++ b/random_lines_ext/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250359265.485</v>
+        <v>1.200524146294365e+16</v>
       </c>
       <c r="C2" t="n">
-        <v>129500</v>
+        <v>2422500</v>
       </c>
       <c r="D2" t="n">
-        <v>10390</v>
+        <v>369549.9999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>49444.01909700001</v>
+        <v>2401048280739</v>
       </c>
       <c r="F2" t="n">
-        <v>259</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265950.970878</v>
+        <v>1808136925645810</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>569500</v>
       </c>
       <c r="D3" t="n">
-        <v>88650.32362600001</v>
+        <v>429269.9999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>361627382137.9999</v>
       </c>
       <c r="F3" t="n">
-        <v>358</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145873.589325</v>
+        <v>153051897647710</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="D4" t="n">
-        <v>48624.529775</v>
+        <v>25570</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30610379303.00001</v>
       </c>
       <c r="F4" t="n">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>677470.625232</v>
+        <v>3276259797625186</v>
       </c>
       <c r="C5" t="n">
-        <v>4370.442717999997</v>
+        <v>897000</v>
       </c>
       <c r="D5" t="n">
-        <v>190860</v>
+        <v>402395</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>655251954978.0001</v>
       </c>
       <c r="F5" t="n">
-        <v>548</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="6">
@@ -560,107 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958666.8310319998</v>
+        <v>1510382668781365</v>
       </c>
       <c r="C6" t="n">
-        <v>25955.70129299999</v>
+        <v>435000</v>
       </c>
       <c r="D6" t="n">
-        <v>111910</v>
+        <v>120455</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>302076531596</v>
       </c>
       <c r="F6" t="n">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bs_auto6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>436047.7457040001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13695.531071</v>
-      </c>
-      <c r="D7" t="n">
-        <v>35785</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bs_auto7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7646886.134112002</v>
-      </c>
-      <c r="C8" t="n">
-        <v>275420.8805880001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>345594.9999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bs_auto8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>15553499.858112</v>
-      </c>
-      <c r="C9" t="n">
-        <v>616710.619088</v>
-      </c>
-      <c r="D9" t="n">
-        <v>250815</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>bs_auto9</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>33328471.721712</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1365228.196738</v>
-      </c>
-      <c r="D10" t="n">
-        <v>187665.0000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2851</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
